--- a/PDF List Orphans.xlsx
+++ b/PDF List Orphans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim/Code/GitHub/BMPTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2251F247-E4B8-8D4E-B180-8C7B02388CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EAFE9E-A68A-9040-AFC5-10F23631B0E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1705,7 +1705,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1723,16 +1743,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2073,7 +2083,7 @@
   <dimension ref="A1:C542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8046,10 +8056,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
